--- a/newsweek_sample_size.xlsx
+++ b/newsweek_sample_size.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robwells/Library/CloudStorage/Dropbox/Current_Projects/Moley project 2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robwells/Code/Moley/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35481440-D421-AA49-AB3C-D2DA1D731CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FD3CBB-AAE8-D247-8696-48217D288CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="680" yWindow="740" windowWidth="28040" windowHeight="17260" xr2:uid="{D99F4B0B-A73A-7A41-8F4C-94B51F6DE199}"/>
+    <workbookView xWindow="11300" yWindow="2980" windowWidth="28040" windowHeight="17260" activeTab="3" xr2:uid="{D99F4B0B-A73A-7A41-8F4C-94B51F6DE199}"/>
   </bookViews>
   <sheets>
     <sheet name="sample calcs" sheetId="1" r:id="rId1"/>
     <sheet name="Sample_1" sheetId="2" r:id="rId2"/>
-    <sheet name="newsweek_index_48_68_results" sheetId="3" r:id="rId3"/>
+    <sheet name="newsweek_index_37_61" sheetId="3" r:id="rId3"/>
+    <sheet name="1962-69" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="1385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1996" uniqueCount="1414">
   <si>
     <t>Random Sample of Newsweek Coverage</t>
   </si>
@@ -4193,6 +4194,93 @@
   </si>
   <si>
     <t>identifier</t>
+  </si>
+  <si>
+    <t>Splinter-Party Folly</t>
+  </si>
+  <si>
+    <t>Big-City Politics</t>
+  </si>
+  <si>
+    <t>Tyranny of Minorities</t>
+  </si>
+  <si>
+    <t>Nixon’‘s Durable Critics</t>
+  </si>
+  <si>
+    <t>How to Pay for Liberty</t>
+  </si>
+  <si>
+    <t>Nixon's Anti-Communism</t>
+  </si>
+  <si>
+    <t>Party Unity and Strength</t>
+  </si>
+  <si>
+    <t>You Win in the Precincts</t>
+  </si>
+  <si>
+    <t>The GOP's Young Men</t>
+  </si>
+  <si>
+    <t>Nixon Versus Brown</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> O 15</t>
+  </si>
+  <si>
+    <t>Law in This Crisis</t>
+  </si>
+  <si>
+    <t>News: Power and Policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ja 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> F 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mr 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ap 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> My 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Je 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> J1 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ag 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> N 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> D 31</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Date2</t>
+  </si>
+  <si>
+    <t>Perspoective Columns by Raymond Moley in Newsweek</t>
   </si>
 </sst>
 </file>
@@ -4606,7 +4694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7213D02-729C-8045-8BC1-24DC53D8B784}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
@@ -4935,8 +5023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F35220-38B4-714C-B3D5-8B5620C32EFE}">
   <dimension ref="A1:A599"/>
   <sheetViews>
-    <sheetView topLeftCell="A572" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A53"/>
+    <sheetView topLeftCell="A558" workbookViewId="0">
+      <selection activeCell="A577" sqref="A2:A577"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7943,10 +8031,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6924364-E25B-D84A-9880-84BDE5B605E5}">
-  <dimension ref="A1:A775"/>
+  <dimension ref="A1:A1351"/>
   <sheetViews>
-    <sheetView topLeftCell="A415" workbookViewId="0">
-      <selection activeCell="A434" sqref="A434:A486"/>
+    <sheetView topLeftCell="A1320" workbookViewId="0">
+      <selection activeCell="A578" sqref="A578:XFD578"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7958,3875 +8046,7011 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1383</v>
+        <v>608</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1382</v>
+        <v>607</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1381</v>
+        <v>606</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1380</v>
+        <v>605</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1379</v>
+        <v>604</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1378</v>
+        <v>603</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1377</v>
+        <v>602</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1376</v>
+        <v>601</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1375</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1374</v>
+        <v>599</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1373</v>
+        <v>598</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1372</v>
+        <v>597</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1371</v>
+        <v>596</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1370</v>
+        <v>595</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1369</v>
+        <v>594</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1368</v>
+        <v>593</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>1367</v>
+        <v>592</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>1366</v>
+        <v>591</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1365</v>
+        <v>590</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1364</v>
+        <v>589</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1363</v>
+        <v>588</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1362</v>
+        <v>587</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1361</v>
+        <v>586</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1360</v>
+        <v>585</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1359</v>
+        <v>584</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1358</v>
+        <v>583</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1357</v>
+        <v>582</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1356</v>
+        <v>581</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1355</v>
+        <v>580</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1354</v>
+        <v>579</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1353</v>
+        <v>578</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1352</v>
+        <v>577</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1351</v>
+        <v>576</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1350</v>
+        <v>575</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1349</v>
+        <v>574</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1348</v>
+        <v>573</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>1347</v>
+        <v>572</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1346</v>
+        <v>571</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1345</v>
+        <v>570</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>1344</v>
+        <v>569</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>1343</v>
+        <v>568</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>1342</v>
+        <v>567</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>1341</v>
+        <v>566</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>1340</v>
+        <v>565</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>1339</v>
+        <v>564</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>1338</v>
+        <v>563</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1337</v>
+        <v>562</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1336</v>
+        <v>561</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>1335</v>
+        <v>560</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>1334</v>
+        <v>559</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>1333</v>
+        <v>558</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1332</v>
+        <v>557</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>1331</v>
+        <v>556</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>1330</v>
+        <v>555</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>1329</v>
+        <v>554</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>1328</v>
+        <v>553</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>1327</v>
+        <v>552</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>1326</v>
+        <v>551</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>1325</v>
+        <v>550</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>1324</v>
+        <v>549</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>1323</v>
+        <v>548</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>1322</v>
+        <v>547</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>1321</v>
+        <v>546</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>1320</v>
+        <v>545</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>1319</v>
+        <v>544</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>1318</v>
+        <v>543</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>1317</v>
+        <v>542</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>1316</v>
+        <v>541</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>1315</v>
+        <v>540</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>1314</v>
+        <v>539</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>1313</v>
+        <v>538</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>1312</v>
+        <v>537</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>1311</v>
+        <v>536</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>1310</v>
+        <v>535</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>1309</v>
+        <v>534</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>1308</v>
+        <v>533</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>1307</v>
+        <v>532</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>1306</v>
+        <v>531</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>1305</v>
+        <v>530</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>1304</v>
+        <v>529</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>1303</v>
+        <v>528</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>1302</v>
+        <v>527</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>1301</v>
+        <v>526</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>1300</v>
+        <v>525</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>1299</v>
+        <v>524</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>1298</v>
+        <v>523</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>1297</v>
+        <v>522</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>1296</v>
+        <v>521</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>1295</v>
+        <v>520</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>1294</v>
+        <v>519</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>1293</v>
+        <v>518</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>1292</v>
+        <v>517</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>1291</v>
+        <v>516</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>1290</v>
+        <v>515</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>1289</v>
+        <v>514</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>1288</v>
+        <v>513</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>1287</v>
+        <v>512</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>1286</v>
+        <v>511</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>1285</v>
+        <v>510</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>1284</v>
+        <v>509</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>1283</v>
+        <v>508</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>1282</v>
+        <v>507</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>1281</v>
+        <v>506</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>1280</v>
+        <v>505</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>1279</v>
+        <v>504</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>1278</v>
+        <v>503</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>1277</v>
+        <v>502</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>1276</v>
+        <v>501</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>1275</v>
+        <v>500</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>1274</v>
+        <v>499</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>1273</v>
+        <v>498</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>1272</v>
+        <v>497</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>1271</v>
+        <v>496</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>1270</v>
+        <v>495</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>1269</v>
+        <v>494</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>1268</v>
+        <v>493</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>1267</v>
+        <v>492</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>1266</v>
+        <v>491</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>1265</v>
+        <v>490</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>1264</v>
+        <v>489</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>1263</v>
+        <v>488</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>1262</v>
+        <v>487</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>1261</v>
+        <v>486</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>1260</v>
+        <v>485</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>1259</v>
+        <v>484</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>1258</v>
+        <v>483</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>1257</v>
+        <v>482</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>1256</v>
+        <v>481</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>1255</v>
+        <v>480</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>1254</v>
+        <v>479</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>1253</v>
+        <v>478</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>1252</v>
+        <v>477</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>1251</v>
+        <v>476</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>1250</v>
+        <v>475</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>1249</v>
+        <v>474</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>1248</v>
+        <v>473</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>1247</v>
+        <v>472</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>1246</v>
+        <v>471</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>1245</v>
+        <v>470</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>1244</v>
+        <v>469</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>1243</v>
+        <v>468</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>1242</v>
+        <v>467</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>1241</v>
+        <v>466</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>1240</v>
+        <v>465</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>1239</v>
+        <v>464</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>1238</v>
+        <v>463</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>1237</v>
+        <v>462</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>1236</v>
+        <v>461</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>1235</v>
+        <v>460</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>1234</v>
+        <v>459</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>1233</v>
+        <v>458</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>1232</v>
+        <v>457</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>1231</v>
+        <v>456</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>1230</v>
+        <v>455</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>1229</v>
+        <v>454</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>1228</v>
+        <v>453</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>1227</v>
+        <v>452</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>1226</v>
+        <v>451</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>1225</v>
+        <v>450</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>1224</v>
+        <v>449</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>1223</v>
+        <v>448</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>1222</v>
+        <v>447</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>1221</v>
+        <v>446</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>1220</v>
+        <v>445</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>1219</v>
+        <v>444</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>1218</v>
+        <v>443</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>1217</v>
+        <v>442</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>1216</v>
+        <v>441</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>1215</v>
+        <v>440</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>1214</v>
+        <v>439</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>1213</v>
+        <v>438</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>1212</v>
+        <v>437</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>1211</v>
+        <v>436</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>1210</v>
+        <v>435</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>1209</v>
+        <v>434</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>1208</v>
+        <v>433</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>1207</v>
+        <v>432</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>1206</v>
+        <v>431</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>1205</v>
+        <v>430</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>1204</v>
+        <v>429</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>1203</v>
+        <v>428</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>1202</v>
+        <v>427</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>1201</v>
+        <v>426</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>1200</v>
+        <v>425</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>1199</v>
+        <v>424</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>1198</v>
+        <v>423</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>1197</v>
+        <v>422</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>1196</v>
+        <v>421</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>1195</v>
+        <v>420</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>1194</v>
+        <v>419</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>1193</v>
+        <v>418</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>1192</v>
+        <v>417</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>1191</v>
+        <v>416</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>1190</v>
+        <v>415</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>1189</v>
+        <v>414</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>1188</v>
+        <v>413</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>1187</v>
+        <v>412</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>1186</v>
+        <v>411</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>1185</v>
+        <v>410</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>1184</v>
+        <v>409</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>1183</v>
+        <v>408</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>1182</v>
+        <v>407</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>1181</v>
+        <v>406</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>1180</v>
+        <v>405</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>1179</v>
+        <v>404</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>1178</v>
+        <v>403</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>1177</v>
+        <v>402</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>1176</v>
+        <v>401</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>1175</v>
+        <v>400</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>1174</v>
+        <v>399</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>1173</v>
+        <v>398</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>1172</v>
+        <v>397</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>1171</v>
+        <v>396</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>1170</v>
+        <v>395</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>1169</v>
+        <v>394</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>1168</v>
+        <v>393</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>1167</v>
+        <v>392</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>1166</v>
+        <v>391</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>1165</v>
+        <v>390</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>1164</v>
+        <v>389</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>1163</v>
+        <v>388</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>1162</v>
+        <v>387</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>1161</v>
+        <v>386</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>1160</v>
+        <v>385</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>1159</v>
+        <v>384</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>1158</v>
+        <v>383</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>1157</v>
+        <v>382</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>1156</v>
+        <v>381</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>1155</v>
+        <v>380</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>1154</v>
+        <v>379</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>1153</v>
+        <v>378</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>1152</v>
+        <v>377</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>1151</v>
+        <v>376</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>1150</v>
+        <v>375</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>1149</v>
+        <v>374</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>1148</v>
+        <v>373</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>1147</v>
+        <v>372</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>1146</v>
+        <v>371</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>1145</v>
+        <v>370</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>1144</v>
+        <v>369</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>1143</v>
+        <v>368</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>1142</v>
+        <v>367</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>1141</v>
+        <v>366</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>1140</v>
+        <v>365</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>1139</v>
+        <v>364</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>1138</v>
+        <v>363</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>1137</v>
+        <v>362</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>1136</v>
+        <v>361</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>1135</v>
+        <v>360</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>1134</v>
+        <v>359</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>1133</v>
+        <v>358</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>1132</v>
+        <v>357</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>1131</v>
+        <v>356</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>1130</v>
+        <v>355</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>1129</v>
+        <v>354</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>1128</v>
+        <v>353</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>1127</v>
+        <v>352</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>1126</v>
+        <v>351</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>1125</v>
+        <v>350</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>1124</v>
+        <v>349</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>1123</v>
+        <v>348</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>1122</v>
+        <v>347</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>1121</v>
+        <v>346</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>1120</v>
+        <v>345</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>1119</v>
+        <v>344</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>1118</v>
+        <v>343</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>1117</v>
+        <v>342</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>1116</v>
+        <v>341</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>1115</v>
+        <v>340</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>1114</v>
+        <v>339</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>1113</v>
+        <v>338</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>1112</v>
+        <v>337</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>1111</v>
+        <v>336</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>1110</v>
+        <v>335</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>1109</v>
+        <v>334</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>1108</v>
+        <v>333</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>1107</v>
+        <v>332</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>1106</v>
+        <v>331</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>1105</v>
+        <v>330</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>1104</v>
+        <v>329</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>1103</v>
+        <v>328</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>1102</v>
+        <v>327</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>1101</v>
+        <v>326</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>1100</v>
+        <v>325</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>1099</v>
+        <v>324</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>1098</v>
+        <v>323</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>1097</v>
+        <v>322</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>1096</v>
+        <v>321</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>1095</v>
+        <v>320</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>1094</v>
+        <v>319</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>1093</v>
+        <v>318</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>1092</v>
+        <v>317</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>1091</v>
+        <v>316</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>1090</v>
+        <v>315</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>1089</v>
+        <v>314</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>1088</v>
+        <v>313</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>1087</v>
+        <v>312</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>1086</v>
+        <v>311</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>1085</v>
+        <v>310</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>1084</v>
+        <v>309</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>1083</v>
+        <v>308</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>1082</v>
+        <v>307</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>1081</v>
+        <v>306</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>1080</v>
+        <v>305</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>1079</v>
+        <v>304</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>1078</v>
+        <v>303</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>1077</v>
+        <v>302</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>1076</v>
+        <v>301</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>1075</v>
+        <v>300</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>1074</v>
+        <v>299</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>1073</v>
+        <v>298</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>1072</v>
+        <v>297</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>1071</v>
+        <v>296</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>1070</v>
+        <v>295</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>1069</v>
+        <v>294</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>1068</v>
+        <v>293</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>1067</v>
+        <v>292</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>1066</v>
+        <v>291</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>1065</v>
+        <v>290</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>1064</v>
+        <v>289</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>1063</v>
+        <v>288</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>1062</v>
+        <v>287</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>1061</v>
+        <v>286</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>1060</v>
+        <v>285</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>1059</v>
+        <v>284</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>1058</v>
+        <v>283</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>1057</v>
+        <v>282</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>1056</v>
+        <v>281</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>1055</v>
+        <v>280</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>1054</v>
+        <v>279</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>1053</v>
+        <v>278</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>1052</v>
+        <v>277</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>1051</v>
+        <v>276</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>1050</v>
+        <v>275</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>1049</v>
+        <v>274</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>1048</v>
+        <v>273</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>1047</v>
+        <v>272</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>1046</v>
+        <v>271</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>1045</v>
+        <v>270</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>1044</v>
+        <v>269</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>1043</v>
+        <v>268</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>1042</v>
+        <v>267</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>1041</v>
+        <v>266</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>1040</v>
+        <v>265</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>1039</v>
+        <v>264</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>1038</v>
+        <v>263</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>1037</v>
+        <v>262</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>1036</v>
+        <v>261</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>1035</v>
+        <v>260</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>1034</v>
+        <v>259</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>1033</v>
+        <v>258</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>1032</v>
+        <v>257</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>1031</v>
+        <v>256</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>1030</v>
+        <v>255</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>1029</v>
+        <v>254</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>1028</v>
+        <v>253</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>1027</v>
+        <v>252</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>1026</v>
+        <v>251</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>1025</v>
+        <v>250</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>1024</v>
+        <v>249</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>1023</v>
+        <v>248</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>1022</v>
+        <v>247</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>1021</v>
+        <v>246</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>1020</v>
+        <v>245</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>1019</v>
+        <v>244</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>1018</v>
+        <v>243</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>1017</v>
+        <v>242</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>1016</v>
+        <v>241</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>1015</v>
+        <v>240</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>1014</v>
+        <v>239</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>1013</v>
+        <v>238</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>1012</v>
+        <v>237</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>1011</v>
+        <v>236</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>1010</v>
+        <v>235</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>1009</v>
+        <v>234</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>1008</v>
+        <v>233</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>1007</v>
+        <v>232</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>1006</v>
+        <v>231</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>1005</v>
+        <v>230</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>1004</v>
+        <v>229</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>1003</v>
+        <v>228</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>1002</v>
+        <v>227</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>1001</v>
+        <v>226</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>1000</v>
+        <v>225</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>999</v>
+        <v>224</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>998</v>
+        <v>223</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>997</v>
+        <v>222</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>996</v>
+        <v>221</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>995</v>
+        <v>220</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>994</v>
+        <v>219</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>993</v>
+        <v>218</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>992</v>
+        <v>217</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>991</v>
+        <v>216</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>990</v>
+        <v>215</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>989</v>
+        <v>214</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>988</v>
+        <v>213</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>987</v>
+        <v>212</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>986</v>
+        <v>211</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>985</v>
+        <v>210</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>984</v>
+        <v>209</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>983</v>
+        <v>208</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>982</v>
+        <v>207</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>981</v>
+        <v>206</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>980</v>
+        <v>205</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>979</v>
+        <v>204</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>978</v>
+        <v>203</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>977</v>
+        <v>202</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>976</v>
+        <v>201</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>975</v>
+        <v>200</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>974</v>
+        <v>199</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>973</v>
+        <v>198</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>972</v>
+        <v>197</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>971</v>
+        <v>196</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>970</v>
+        <v>195</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>969</v>
+        <v>194</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>968</v>
+        <v>193</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>967</v>
+        <v>192</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>966</v>
+        <v>191</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>965</v>
+        <v>190</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>964</v>
+        <v>189</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>963</v>
+        <v>188</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>962</v>
+        <v>187</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>961</v>
+        <v>186</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>960</v>
+        <v>185</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>959</v>
+        <v>184</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>958</v>
+        <v>183</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>957</v>
+        <v>182</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>956</v>
+        <v>181</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>955</v>
+        <v>180</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>954</v>
+        <v>179</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>953</v>
+        <v>178</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>952</v>
+        <v>177</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>951</v>
+        <v>176</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>950</v>
+        <v>175</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>949</v>
+        <v>174</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>948</v>
+        <v>173</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>947</v>
+        <v>172</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>946</v>
+        <v>171</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>945</v>
+        <v>170</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>944</v>
+        <v>169</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>943</v>
+        <v>168</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>942</v>
+        <v>167</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>941</v>
+        <v>166</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>940</v>
+        <v>165</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>939</v>
+        <v>164</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>938</v>
+        <v>163</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>937</v>
+        <v>162</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>936</v>
+        <v>161</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>935</v>
+        <v>160</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>934</v>
+        <v>159</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>933</v>
+        <v>158</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>932</v>
+        <v>157</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>931</v>
+        <v>156</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>930</v>
+        <v>155</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>929</v>
+        <v>154</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>928</v>
+        <v>153</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>927</v>
+        <v>152</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>926</v>
+        <v>151</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>925</v>
+        <v>150</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>924</v>
+        <v>149</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>923</v>
+        <v>148</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>922</v>
+        <v>147</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>921</v>
+        <v>146</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>920</v>
+        <v>145</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>919</v>
+        <v>144</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>918</v>
+        <v>143</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>917</v>
+        <v>142</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>916</v>
+        <v>141</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>915</v>
+        <v>140</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>914</v>
+        <v>139</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>913</v>
+        <v>138</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>912</v>
+        <v>137</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>911</v>
+        <v>136</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>910</v>
+        <v>135</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>909</v>
+        <v>134</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>908</v>
+        <v>133</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>907</v>
+        <v>132</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>906</v>
+        <v>131</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>905</v>
+        <v>130</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>904</v>
+        <v>129</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>903</v>
+        <v>128</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>902</v>
+        <v>127</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>901</v>
+        <v>126</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>900</v>
+        <v>125</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>899</v>
+        <v>124</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>898</v>
+        <v>123</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>897</v>
+        <v>122</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>896</v>
+        <v>121</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>895</v>
+        <v>120</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>894</v>
+        <v>119</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>893</v>
+        <v>118</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>892</v>
+        <v>117</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>891</v>
+        <v>116</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>890</v>
+        <v>115</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>889</v>
+        <v>114</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>888</v>
+        <v>113</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>887</v>
+        <v>112</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>886</v>
+        <v>111</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>885</v>
+        <v>110</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>884</v>
+        <v>109</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>883</v>
+        <v>108</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>882</v>
+        <v>107</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>881</v>
+        <v>106</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>880</v>
+        <v>105</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>879</v>
+        <v>104</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>878</v>
+        <v>103</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>877</v>
+        <v>102</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>876</v>
+        <v>101</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>875</v>
+        <v>100</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>874</v>
+        <v>99</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>873</v>
+        <v>98</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>872</v>
+        <v>97</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>871</v>
+        <v>96</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>870</v>
+        <v>95</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>869</v>
+        <v>94</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>868</v>
+        <v>93</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>867</v>
+        <v>92</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>866</v>
+        <v>91</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>865</v>
+        <v>90</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>864</v>
+        <v>89</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>863</v>
+        <v>88</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>862</v>
+        <v>87</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>861</v>
+        <v>86</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>860</v>
+        <v>85</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>859</v>
+        <v>84</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
-        <v>858</v>
+        <v>83</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
-        <v>857</v>
+        <v>82</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
-        <v>856</v>
+        <v>81</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
-        <v>855</v>
+        <v>80</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>854</v>
+        <v>79</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
-        <v>853</v>
+        <v>78</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
-        <v>852</v>
+        <v>77</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
-        <v>851</v>
+        <v>76</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>850</v>
+        <v>75</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
-        <v>849</v>
+        <v>74</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
-        <v>848</v>
+        <v>73</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
-        <v>847</v>
+        <v>72</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
-        <v>846</v>
+        <v>71</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
-        <v>845</v>
+        <v>70</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
-        <v>844</v>
+        <v>69</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
-        <v>843</v>
+        <v>68</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
-        <v>842</v>
+        <v>67</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
-        <v>841</v>
+        <v>66</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
-        <v>840</v>
+        <v>65</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
-        <v>839</v>
+        <v>64</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
-        <v>838</v>
+        <v>63</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
-        <v>837</v>
+        <v>62</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
-        <v>836</v>
+        <v>61</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
-        <v>835</v>
+        <v>60</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
-        <v>834</v>
+        <v>59</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
-        <v>833</v>
+        <v>58</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
-        <v>832</v>
+        <v>57</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
-        <v>831</v>
+        <v>56</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
-        <v>830</v>
+        <v>55</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
-        <v>829</v>
+        <v>54</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
-        <v>828</v>
+        <v>53</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
-        <v>827</v>
+        <v>52</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
-        <v>826</v>
+        <v>51</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
-        <v>825</v>
+        <v>50</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
-        <v>824</v>
+        <v>49</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
-        <v>823</v>
+        <v>48</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
-        <v>822</v>
+        <v>47</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
-        <v>821</v>
+        <v>46</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
-        <v>820</v>
+        <v>45</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
-        <v>819</v>
+        <v>44</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
-        <v>818</v>
+        <v>43</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
-        <v>817</v>
+        <v>42</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
-        <v>816</v>
+        <v>41</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
-        <v>815</v>
+        <v>40</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
-        <v>814</v>
+        <v>39</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
-        <v>813</v>
+        <v>38</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
-        <v>812</v>
+        <v>37</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
-        <v>811</v>
+        <v>36</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
-        <v>810</v>
+        <v>35</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
-        <v>809</v>
+        <v>34</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
-        <v>808</v>
+        <v>33</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
-        <v>807</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
-        <v>806</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
-        <v>805</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
-        <v>804</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
-        <v>803</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
-        <v>802</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
-        <v>801</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
-        <v>800</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
-        <v>799</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
-        <v>798</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
-        <v>797</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
-        <v>796</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
-        <v>795</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
-        <v>794</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
-        <v>793</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
-        <v>792</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
-        <v>791</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
-        <v>790</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
-        <v>789</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
-        <v>788</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
-        <v>787</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
-        <v>786</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
-        <v>785</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
-        <v>784</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
-        <v>783</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
-        <v>782</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
-        <v>781</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
-        <v>780</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
-        <v>779</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
-        <v>778</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
-        <v>777</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
-        <v>776</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
-        <v>775</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
-        <v>774</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
-        <v>773</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
-        <v>772</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
-        <v>771</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
-        <v>770</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
-        <v>769</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
-        <v>768</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
-        <v>767</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
-        <v>766</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
-        <v>765</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
-        <v>764</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
-        <v>763</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
-        <v>762</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
-        <v>761</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
-        <v>760</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
-        <v>759</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
-        <v>758</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
-        <v>757</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
-        <v>756</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
-        <v>755</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
-        <v>754</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
-        <v>753</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
-        <v>752</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
-        <v>751</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
-        <v>750</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
-        <v>749</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
-        <v>748</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
-        <v>747</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
-        <v>746</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
-        <v>745</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
-        <v>744</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
-        <v>743</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
-        <v>742</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
-        <v>741</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
-        <v>740</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
-        <v>739</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
-        <v>738</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
-        <v>737</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
-        <v>736</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
-        <v>735</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
-        <v>734</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
-        <v>733</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
-        <v>732</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
-        <v>731</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
-        <v>730</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
-        <v>729</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
-        <v>728</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
-        <v>727</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
-        <v>726</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
-        <v>725</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
-        <v>724</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
-        <v>723</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
-        <v>722</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
-        <v>721</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
-        <v>720</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
-        <v>719</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
-        <v>718</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
-        <v>717</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
-        <v>716</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
-        <v>715</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
-        <v>714</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
-        <v>713</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
-        <v>712</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
-        <v>711</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
-        <v>710</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
-        <v>709</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
-        <v>708</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
-        <v>707</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
-        <v>706</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
-        <v>705</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
-        <v>704</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
-        <v>703</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
-        <v>702</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
-        <v>701</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
-        <v>700</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
-        <v>699</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
-        <v>698</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
-        <v>697</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
-        <v>696</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
-        <v>695</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
-        <v>694</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
-        <v>693</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
-        <v>692</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
-        <v>691</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
-        <v>690</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
-        <v>689</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
-        <v>688</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
-        <v>687</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
-        <v>686</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
-        <v>685</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
-        <v>684</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
-        <v>683</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
-        <v>682</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
-        <v>681</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
-        <v>680</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
-        <v>679</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
-        <v>678</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
-        <v>677</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
-        <v>676</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
-        <v>675</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
-        <v>674</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
-        <v>673</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
-        <v>672</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
-        <v>671</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
-        <v>670</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
-        <v>669</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
-        <v>668</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
-        <v>667</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
-        <v>666</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
-        <v>665</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="721" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
-        <v>664</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="722" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
-        <v>663</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="723" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
-        <v>662</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="724" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
-        <v>661</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="725" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
-        <v>660</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="726" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
-        <v>659</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="727" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
-        <v>658</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="728" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
-        <v>657</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="729" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
-        <v>656</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
-        <v>655</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
-        <v>654</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
-        <v>653</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="733" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
-        <v>652</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="734" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
-        <v>651</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="735" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
-        <v>650</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="736" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
-        <v>649</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
-        <v>648</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="738" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
-        <v>647</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
-        <v>646</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="740" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
-        <v>645</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="741" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
-        <v>644</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="742" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
-        <v>643</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="743" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
-        <v>642</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="744" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
-        <v>641</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="745" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
-        <v>640</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="746" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
-        <v>639</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="747" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
-        <v>638</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="748" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
-        <v>637</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="749" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
-        <v>636</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="750" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
-        <v>635</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="751" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
-        <v>634</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="752" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
-        <v>633</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="753" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
-        <v>632</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="754" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
-        <v>631</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="755" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
-        <v>630</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="756" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
-        <v>629</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="757" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
-        <v>628</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="758" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
-        <v>627</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="759" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
-        <v>626</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
-        <v>625</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
-        <v>624</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="762" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
-        <v>623</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="763" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
-        <v>622</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="764" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
-        <v>621</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A765" t="s">
-        <v>620</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A766" t="s">
-        <v>619</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="767" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
-        <v>618</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="768" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
-        <v>617</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="769" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
-        <v>616</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
-        <v>615</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
-        <v>614</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
-        <v>613</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
-        <v>612</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="774" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A774" t="s">
-        <v>611</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="775" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A775" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A776" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A777" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A778" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A779" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A780" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A781" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A782" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A783" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A784" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A785" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A786" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A787" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A788" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A789" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A790" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A791" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A792" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A793" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A794" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A795" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A796" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A797" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A798" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A799" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A800" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A801" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A802" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A803" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A804" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A805" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A806" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A807" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A808" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A809" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A810" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A811" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A812" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A813" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A814" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A815" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A816" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A817" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A818" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A819" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A820" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A821" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A822" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A823" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A824" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A825" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A826" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A827" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A828" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A829" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A830" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A831" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A832" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A833" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A834" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A835" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A836" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A837" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A838" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A839" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A840" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="841" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A841" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A842" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A843" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A844" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A845" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="846" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A846" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="847" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A847" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="848" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A848" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A849" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A850" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A851" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A852" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A853" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A854" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A855" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A856" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A857" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="858" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A858" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="859" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A859" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A860" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="861" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A861" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A862" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A863" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="864" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A864" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A865" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A866" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A867" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A868" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A869" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A870" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A871" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A872" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A873" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="874" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A874" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A875" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A876" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A877" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A878" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A879" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="880" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A880" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A881" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A882" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="883" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A883" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A884" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A885" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="886" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A886" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="887" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A887" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="888" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A888" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="889" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A889" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="890" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A890" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="891" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A891" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="892" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A892" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="893" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A893" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="894" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A894" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="895" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A895" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="896" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A896" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="897" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A897" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="898" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A898" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="899" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A899" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="900" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A900" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="901" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A901" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="902" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A902" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="903" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A903" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="904" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A904" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="905" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A905" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="906" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A906" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="907" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A907" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="908" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A908" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="909" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A909" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="910" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A910" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="911" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A911" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="912" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A912" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="913" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A913" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="914" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A914" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="915" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A915" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="916" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A916" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="917" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A917" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="918" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A918" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="919" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A919" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="920" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A920" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="921" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A921" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="922" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A922" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="923" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A923" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="924" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A924" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="925" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A925" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="926" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A926" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="927" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A927" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="928" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A928" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="929" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A929" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="930" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A930" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="931" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A931" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="932" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A932" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="933" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A933" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="934" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A934" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="935" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A935" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="936" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A936" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="937" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A937" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="938" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A938" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="939" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A939" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="940" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A940" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="941" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A941" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="942" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A942" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="943" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A943" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="944" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A944" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="945" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A945" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="946" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A946" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="947" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A947" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="948" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A948" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="949" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A949" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="950" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A950" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="951" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A951" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="952" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A952" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="953" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A953" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="954" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A954" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="955" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A955" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="956" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A956" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="957" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A957" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="958" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A958" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="959" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A959" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="960" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A960" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="961" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A961" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="962" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A962" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="963" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A963" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="964" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A964" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="965" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A965" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="966" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A966" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="967" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A967" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="968" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A968" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="969" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A969" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="970" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A970" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="971" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A971" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="972" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A972" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="973" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A973" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="974" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A974" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="975" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A975" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="976" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A976" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="977" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A977" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="978" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A978" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="979" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A979" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="980" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A980" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="981" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A981" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="982" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A982" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="983" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A983" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="984" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A984" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="985" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A985" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="986" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A986" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="987" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A987" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="988" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A988" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="989" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A989" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="990" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A990" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="991" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A991" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="992" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A992" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="993" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A993" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="994" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A994" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="995" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A995" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="996" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A996" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="997" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A997" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="998" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A998" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="999" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A999" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1000" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1001" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1002" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1003" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1004" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1005" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1006" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1007" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1008" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1009" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1010" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1011" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1012" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1013" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1014" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1015" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1016" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1017" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1018" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1019" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1020" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1021" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1022" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1023" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1024" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1025" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1026" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1027" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1028" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1029" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1030" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1031" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1032" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1033" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1034" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1035" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1036" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1037" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1038" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1039" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1040" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1041" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1042" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1043" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1044" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1045" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1046" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1047" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1048" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1049" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1050" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1051" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1052" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1053" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1054" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1055" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1056" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1057" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1058" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1059" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1060" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1061" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1062" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1063" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1064" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1065" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1066" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1067" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1068" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1069" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1070" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1071" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1072" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1073" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1074" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1075" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1076" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1077" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1078" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1079" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1080" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1081" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1082" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1083" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1084" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1085" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1086" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1087" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1088" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1089" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1090" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1091" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1092" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1093" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1094" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1095" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1096" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1097" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1098" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1099" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1100" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1101" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1102" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1103" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1104" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1105" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1106" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1107" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1108" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1109" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1110" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1111" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1112" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1113" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1114" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1115" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1116" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1117" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1118" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1119" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1120" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1121" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1122" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1123" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1124" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1125" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1126" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1127" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1128" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1129" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1130" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1131" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1132" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1133" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1134" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1135" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1136" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1137" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1138" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1139" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1140" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1141" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1142" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1143" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1144" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1145" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1146" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1147" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1148" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1149" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1150" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1151" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1152" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1153" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1154" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1155" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1156" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1157" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1158" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1159" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1160" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1161" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1162" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1163" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1164" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1165" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1166" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1167" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1168" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1169" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1170" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1171" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1172" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1173" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1174" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1175" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1176" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1177" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1178" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1179" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1180" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1181" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1182" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1183" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1184" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1185" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1186" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1187" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1188" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1189" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1190" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1191" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1192" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1193" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1194" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1195" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1196" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1197" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1198" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1199" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1200" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1201" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1202" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1203" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1204" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1205" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1206" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1207" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1208" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1209" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1210" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1211" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1212" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1213" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1214" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1215" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1216" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1217" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1218" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1219" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1220" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1221" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1222" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1223" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1224" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1225" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1226" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1227" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1228" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1229" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1230" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1231" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1232" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1233" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1234" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1235" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1236" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1237" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1238" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1239" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1240" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1241" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1242" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1243" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1244" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1245" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1246" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1247" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1248" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1249" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1250" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1251" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1252" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1253" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1254" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1255" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1256" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1257" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1258" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1259" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1260" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1261" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1262" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1263" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1264" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1265" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1266" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1267" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1268" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1269" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1270" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1271" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1272" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1273" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1274" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1275" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1276" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1277" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1278" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1279" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1280" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1281" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1282" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1283" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1284" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1285" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1286" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1287" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1288" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1289" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1290" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1291" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1292" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1293" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1294" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1295" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1296" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1297" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1298" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1299" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1300" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1301" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1302" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1303" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1304" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1305" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1306" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1307" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1308" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1309" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1310" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1311" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1312" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1313" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1314" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1315" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1316" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1317" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1318" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1319" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1320" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1321" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1322" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1323" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1324" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1325" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1326" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1327" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1328" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1329" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1330" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1331" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1332" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1333" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1334" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1335" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1336" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1337" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1338" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1339" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1340" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1341" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1342" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1343" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1344" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1345" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1346" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1347" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1348" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1349" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1350" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1351" t="s">
         <v>610</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9587C8-47F8-DF4F-A2F7-9D513599593D}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1411</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1962</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D4">
+        <v>84</v>
+      </c>
+      <c r="E4" t="str">
+        <f>CONCATENATE(C4, " ",A4)</f>
+        <v xml:space="preserve"> Ja 22 1962</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1962</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D5">
+        <v>92</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" ref="E5:E15" si="0">CONCATENATE(C5, " ",A5)</f>
+        <v xml:space="preserve"> F 12 1962</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1962</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D6">
+        <v>122</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> Mr 19 1962</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1962</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D7">
+        <v>90</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> Ap 2 1962</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1962</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> My 7 1962</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1962</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D9">
+        <v>104</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> Je 4 1962</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1962</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D10">
+        <v>80</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> J1 30 1962</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1962</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D11">
+        <v>88</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> Ag 13 1962</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1962</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D12">
+        <v>112</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> S 10 1962</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1962</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D13">
+        <v>116</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> O 15 1962</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1962</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D14">
+        <v>102</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> N 12 1962</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1962</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D15">
+        <v>60</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> D 31 1962</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/newsweek_sample_size.xlsx
+++ b/newsweek_sample_size.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robwells/Code/Moley/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B5C51E-1818-2F44-9D3C-E16769C62CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE4C9AB-2FDF-434D-8648-9349BF8FECD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10360" yWindow="2980" windowWidth="28040" windowHeight="17260" activeTab="1" xr2:uid="{D99F4B0B-A73A-7A41-8F4C-94B51F6DE199}"/>
+    <workbookView xWindow="12480" yWindow="1140" windowWidth="25920" windowHeight="17380" activeTab="6" xr2:uid="{D99F4B0B-A73A-7A41-8F4C-94B51F6DE199}"/>
   </bookViews>
   <sheets>
-    <sheet name="newsweek_index_37_61" sheetId="3" r:id="rId1"/>
-    <sheet name="sample_1962-69" sheetId="4" r:id="rId2"/>
-    <sheet name="full list moley columns 63-69" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
-    <sheet name="sample calcs" sheetId="1" r:id="rId5"/>
+    <sheet name="stratified sample " sheetId="1" r:id="rId1"/>
+    <sheet name="newsweek_index_37_61" sheetId="3" r:id="rId2"/>
+    <sheet name="for ILL sample_1962-69" sheetId="4" r:id="rId3"/>
+    <sheet name="full list moley columns 63-69" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId5"/>
     <sheet name="Sample_1" sheetId="2" r:id="rId6"/>
+    <sheet name="Stratified Sample" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'sample_1962-69'!$A$1:$L$68</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet2!$A$1:$E$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'for ILL sample_1962-69'!$A$3:$F$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet2!$A$1:$E$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10777" uniqueCount="1854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10914" uniqueCount="1857">
   <si>
     <t>Random Sample of Newsweek Coverage</t>
   </si>
@@ -5607,6 +5608,15 @@
   </si>
   <si>
     <t>Perspective Columns by Raymond Moley in Newsweek</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Obtained from ILL</t>
+  </si>
+  <si>
+    <t>partial</t>
   </si>
 </sst>
 </file>
@@ -5645,13 +5655,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5689,13 +5699,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6030,6 +6040,359 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7213D02-729C-8045-8BC1-24DC53D8B784}">
+  <dimension ref="A1:D50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <f>(1968-1937)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <f>(B4*B3)</f>
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <f>(B8*B7)</f>
+        <v>372</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1">
+        <f>(B9/$B$5)</f>
+        <v>0.22222222222222221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <f>(B13*B12)</f>
+        <v>744</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1">
+        <f>(B14/$B$5)</f>
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>1937</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>1938</v>
+      </c>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>1939</v>
+      </c>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>1940</v>
+      </c>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>1941</v>
+      </c>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>1942</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>1943</v>
+      </c>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>1944</v>
+      </c>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>1945</v>
+      </c>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>1946</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>1947</v>
+      </c>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>1948</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>1949</v>
+      </c>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>1950</v>
+      </c>
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>1951</v>
+      </c>
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>1952</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>1953</v>
+      </c>
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>1954</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>1955</v>
+      </c>
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>1956</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>1957</v>
+      </c>
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>1958</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>1959</v>
+      </c>
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>1960</v>
+      </c>
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>1961</v>
+      </c>
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>1962</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>1963</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>1964</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>1965</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>1966</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>1967</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6924364-E25B-D84A-9880-84BDE5B605E5}">
   <dimension ref="A1:A1351"/>
   <sheetViews>
@@ -12704,63 +13067,63 @@
         <v>628</v>
       </c>
     </row>
-    <row r="1334" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1334" s="8" t="s">
+    <row r="1334" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1334" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="1335" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1335" s="8" t="s">
+    <row r="1335" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1335" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="1336" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1336" s="7" t="s">
+    <row r="1336" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1336" s="6" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="1337" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1337" s="7" t="s">
+    <row r="1337" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1337" s="6" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="1338" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1338" s="7" t="s">
+    <row r="1338" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1338" s="6" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="1339" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1339" s="7" t="s">
+    <row r="1339" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1339" s="6" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="1340" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1340" s="7" t="s">
+    <row r="1340" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1340" s="6" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="1341" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1341" s="7" t="s">
+    <row r="1341" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1341" s="6" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="1342" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1342" s="7" t="s">
+    <row r="1342" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1342" s="6" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="1343" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1343" s="7" t="s">
+    <row r="1343" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1343" s="6" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="1344" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1344" s="7" t="s">
+    <row r="1344" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1344" s="6" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="1345" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1345" s="7" t="s">
+    <row r="1345" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1345" s="6" t="s">
         <v>616</v>
       </c>
     </row>
@@ -12769,8 +13132,8 @@
         <v>615</v>
       </c>
     </row>
-    <row r="1347" spans="1:1" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1347" s="7" t="s">
+    <row r="1347" spans="1:1" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1347" s="6" t="s">
         <v>614</v>
       </c>
     </row>
@@ -12799,12 +13162,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9587C8-47F8-DF4F-A2F7-9D513599593D}">
-  <dimension ref="A1:XFD78"/>
+  <dimension ref="A1:XFD79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E78"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12812,12 +13175,12 @@
     <col min="2" max="2" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1853</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -12833,8 +13196,11 @@
       <c r="E3" t="s">
         <v>1411</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1962</v>
       </c>
@@ -12851,8 +13217,11 @@
         <f>CONCATENATE(C4, " ",A4)</f>
         <v xml:space="preserve"> Ja 22 1962</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1962</v>
       </c>
@@ -12869,8 +13238,11 @@
         <f t="shared" ref="E5:E68" si="0">CONCATENATE(C5, " ",A5)</f>
         <v xml:space="preserve"> F 12 1962</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1962</v>
       </c>
@@ -12887,8 +13259,11 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve"> Mr 19 1962</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1962</v>
       </c>
@@ -12905,8 +13280,11 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve"> Ap 2 1962</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1962</v>
       </c>
@@ -12923,8 +13301,11 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve"> My 7 1962</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1962</v>
       </c>
@@ -12941,26 +13322,32 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve"> Je 4 1962</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
         <v>1962</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="7" t="s">
         <v>1391</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="7" t="s">
         <v>1404</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="7">
         <v>80</v>
       </c>
-      <c r="E10" t="str">
+      <c r="E10" s="7" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> J1 30 1962</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" s="7" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1962</v>
       </c>
@@ -12977,8 +13364,11 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve"> Ag 13 1962</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1962</v>
       </c>
@@ -12995,8 +13385,11 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve"> S 10 1962</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1962</v>
       </c>
@@ -13013,8 +13406,11 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve"> O 15 1962</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1962</v>
       </c>
@@ -13031,8 +13427,11 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve"> N 12 1962</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1962</v>
       </c>
@@ -13049,8 +13448,11 @@
         <f t="shared" si="0"/>
         <v xml:space="preserve"> D 31 1962</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1963</v>
       </c>
@@ -13067,6 +13469,9 @@
         <f t="shared" si="0"/>
         <v>Ja 21 1963</v>
       </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A17">
@@ -13085,6 +13490,9 @@
         <f t="shared" si="0"/>
         <v>F 11 1963</v>
       </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
       <c r="T17">
         <v>96</v>
       </c>
@@ -62198,6 +62606,9 @@
         <f t="shared" si="0"/>
         <v>Mr 25 1963</v>
       </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A19">
@@ -62216,6 +62627,9 @@
         <f t="shared" si="0"/>
         <v>Ap 15 1963</v>
       </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A20">
@@ -62234,6 +62648,9 @@
         <f t="shared" si="0"/>
         <v>My 27 1963</v>
       </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="21" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A21">
@@ -62252,6 +62669,9 @@
         <f t="shared" si="0"/>
         <v>Je 3 1963</v>
       </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A22">
@@ -62270,6 +62690,9 @@
         <f t="shared" si="0"/>
         <v>Jl 15 1963</v>
       </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A23">
@@ -62288,6 +62711,9 @@
         <f t="shared" si="0"/>
         <v>JL 29 1963</v>
       </c>
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A24">
@@ -62306,6 +62732,9 @@
         <f t="shared" si="0"/>
         <v>Ag 12 1963</v>
       </c>
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="25" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A25">
@@ -62324,6 +62753,9 @@
         <f t="shared" si="0"/>
         <v>S 16 1963</v>
       </c>
+      <c r="F25" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A26">
@@ -62342,6 +62774,9 @@
         <f t="shared" si="0"/>
         <v>O 7 1963</v>
       </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A27">
@@ -62360,6 +62795,9 @@
         <f t="shared" si="0"/>
         <v>O 28 1963</v>
       </c>
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A28">
@@ -62378,332 +62816,389 @@
         <f t="shared" si="0"/>
         <v>N 11 1963</v>
       </c>
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="29" spans="1:16384" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>1963</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="A29" s="7">
+        <v>1963</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>1509</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="7" t="s">
         <v>1510</v>
       </c>
-      <c r="D29">
-        <v>96</v>
-      </c>
-      <c r="E29" t="str">
+      <c r="D29" s="7">
+        <v>96</v>
+      </c>
+      <c r="E29" s="7" t="str">
         <f t="shared" si="0"/>
         <v>D 16 1963</v>
       </c>
+      <c r="F29" s="7" t="s">
+        <v>1854</v>
+      </c>
     </row>
     <row r="30" spans="1:16384" x14ac:dyDescent="0.2">
-      <c r="A30" s="6">
+      <c r="A30" s="5">
         <v>1964</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>1566</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>1519</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="5">
         <v>78</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
         <v>Ja 13 1964</v>
       </c>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="31" spans="1:16384" x14ac:dyDescent="0.2">
-      <c r="A31" s="6">
+      <c r="A31" s="5">
         <v>1964</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>1567</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="5" t="s">
         <v>1531</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="5">
         <v>96</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
         <v>F 24 1964</v>
       </c>
+      <c r="F31" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="32" spans="1:16384" x14ac:dyDescent="0.2">
-      <c r="A32" s="6">
+      <c r="A32" s="5">
         <v>1964</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>1568</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>1537</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="5">
         <v>116</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="0"/>
         <v>Mr 16 1964</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="6">
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
         <v>1964</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>1569</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="5" t="s">
         <v>1545</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="5">
         <v>100</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="0"/>
         <v>Ap 13 1964</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="6">
+      <c r="F33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
         <v>1964</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>1546</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="5" t="s">
         <v>1547</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="5">
         <v>122</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="0"/>
         <v>Ap 20 1964</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="6">
+      <c r="F34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="5">
         <v>1964</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>1550</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="5" t="s">
         <v>1551</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="5">
         <v>96</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>
         <v>My 4 1964</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="6">
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="8">
         <v>1964</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="8" t="s">
         <v>1562</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="8" t="s">
         <v>1563</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="8">
         <v>92</v>
       </c>
-      <c r="E36" t="str">
+      <c r="E36" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Je 22 1964</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="6">
+      <c r="F36" s="7" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="8">
         <v>1964</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="8" t="s">
         <v>1572</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="8" t="s">
         <v>1573</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="8">
         <v>84</v>
       </c>
-      <c r="E37" t="str">
+      <c r="E37" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Jl 20 1964</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="6">
+      <c r="F37" s="7" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="8">
         <v>1964</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="8" t="s">
         <v>1582</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="8" t="s">
         <v>1583</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="8">
         <v>88</v>
       </c>
-      <c r="E38" t="str">
+      <c r="E38" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Ag 24 1964</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="6">
+      <c r="F38" s="7" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="8">
         <v>1964</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="8" t="s">
         <v>1586</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="8" t="s">
         <v>1587</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="8">
         <v>88</v>
       </c>
-      <c r="E39" t="str">
+      <c r="E39" s="7" t="str">
         <f t="shared" si="0"/>
         <v>S 7 1964</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="6">
+      <c r="F39" s="7" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="8">
         <v>1964</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="8" t="s">
         <v>1592</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="8" t="s">
         <v>1593</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="8">
         <v>102</v>
       </c>
-      <c r="E40" t="str">
+      <c r="E40" s="7" t="str">
         <f t="shared" si="0"/>
         <v>S 28 1964</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="6">
+      <c r="F40" s="7" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="5">
         <v>1964</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>1600</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="5" t="s">
         <v>1601</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="5">
         <v>124</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="0"/>
         <v>O 26 1964</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="6">
+      <c r="F41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="5">
         <v>1964</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>1604</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="5" t="s">
         <v>1605</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="5">
         <v>108</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="0"/>
         <v>N 9 1964</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="6">
+      <c r="F42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="8">
         <v>1964</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="8" t="s">
         <v>1618</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="8" t="s">
         <v>1619</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="8">
         <v>60</v>
       </c>
-      <c r="E43" t="str">
+      <c r="E43" s="7" t="str">
         <f t="shared" si="0"/>
         <v>D 28 1964</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44">
+      <c r="F43" s="7" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="7">
         <v>1965</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="7" t="s">
         <v>1624</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="7" t="s">
         <v>1625</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="7">
         <v>80</v>
       </c>
-      <c r="E44" t="str">
+      <c r="E44" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Ja 18 1965</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45">
+      <c r="F44" s="7" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="7">
         <v>1965</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="7" t="s">
         <v>1628</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="7" t="s">
         <v>1629</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="7">
         <v>80</v>
       </c>
-      <c r="E45" t="str">
+      <c r="E45" s="7" t="str">
         <f t="shared" si="0"/>
         <v>F 1 1965</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46">
+      <c r="F45" s="7" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="7">
         <v>1965</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="7" t="s">
         <v>1636</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="7" t="s">
         <v>1637</v>
       </c>
-      <c r="D46">
-        <v>96</v>
-      </c>
-      <c r="E46" t="str">
+      <c r="D46" s="7">
+        <v>96</v>
+      </c>
+      <c r="E46" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Mr 8 1965</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46" s="7" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1965</v>
       </c>
@@ -62720,26 +63215,32 @@
         <f t="shared" si="0"/>
         <v>Ap 12 1965</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48">
+      <c r="F47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="7">
         <v>1965</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="7" t="s">
         <v>1660</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="7" t="s">
         <v>1661</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="7">
         <v>120</v>
       </c>
-      <c r="E48" t="str">
+      <c r="E48" s="7" t="str">
         <f t="shared" si="0"/>
         <v>My 24 1965</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48" s="7" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1965</v>
       </c>
@@ -62756,8 +63257,11 @@
         <f t="shared" si="0"/>
         <v>Je 7 1965</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1965</v>
       </c>
@@ -62774,8 +63278,11 @@
         <f t="shared" si="0"/>
         <v>Jl 5 1965</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1965</v>
       </c>
@@ -62792,8 +63299,11 @@
         <f t="shared" si="0"/>
         <v>Ag 2 1965</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1965</v>
       </c>
@@ -62810,8 +63320,11 @@
         <f t="shared" si="0"/>
         <v>S 27 1965</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1965</v>
       </c>
@@ -62828,8 +63341,11 @@
         <f t="shared" si="0"/>
         <v>O 25 1965</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1965</v>
       </c>
@@ -62846,8 +63362,11 @@
         <f t="shared" si="0"/>
         <v>N 1 1965</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1965</v>
       </c>
@@ -62864,314 +63383,368 @@
         <f t="shared" si="0"/>
         <v>D 27 1965</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="6">
+      <c r="F55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="5">
         <v>1966</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="5" t="s">
         <v>1722</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="5" t="s">
         <v>1723</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="5">
         <v>92</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" si="0"/>
         <v>Ja 24 1966</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="6">
+      <c r="F56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="5">
         <v>1966</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="5" t="s">
         <v>1732</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="5" t="s">
         <v>1733</v>
       </c>
-      <c r="D57" s="6">
+      <c r="D57" s="5">
         <v>96</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" si="0"/>
         <v>F 28 1966</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="6">
+      <c r="F57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="5">
         <v>1966</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="5" t="s">
         <v>1738</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="5" t="s">
         <v>1739</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58" s="5">
         <v>112</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" si="0"/>
         <v>Mr 21 1966</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="6">
+      <c r="F58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="8">
         <v>1966</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="8" t="s">
         <v>1744</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="8" t="s">
         <v>1745</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D59" s="8">
         <v>116</v>
       </c>
-      <c r="E59" t="str">
+      <c r="E59" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Ap 11 1966</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="6">
+      <c r="F59" s="7" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="8">
         <v>1966</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="8" t="s">
         <v>1752</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="8" t="s">
         <v>1753</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="8">
         <v>108</v>
       </c>
-      <c r="E60" t="str">
+      <c r="E60" s="7" t="str">
         <f t="shared" si="0"/>
         <v>My 9 1966</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="6">
+      <c r="F60" s="7" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="8">
         <v>1966</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="8" t="s">
         <v>1760</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="8" t="s">
         <v>1761</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D61" s="8">
         <v>104</v>
       </c>
-      <c r="E61" t="str">
+      <c r="E61" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Je 6 1966</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="6">
+      <c r="F61" s="7" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="8">
         <v>1966</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="8" t="s">
         <v>1770</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="8" t="s">
         <v>1771</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D62" s="8">
         <v>100</v>
       </c>
-      <c r="E62" t="str">
+      <c r="E62" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Jl 18 1966</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="6">
+      <c r="F62" s="7" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="8">
         <v>1966</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="8" t="s">
         <v>1776</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="8" t="s">
         <v>1777</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D63" s="8">
         <v>92</v>
       </c>
-      <c r="E63" t="str">
+      <c r="E63" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Ag 15 1966</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="6">
+      <c r="F63" s="7" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="5">
         <v>1966</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="5" t="s">
         <v>1786</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C64" s="5" t="s">
         <v>1787</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D64" s="5">
         <v>120</v>
       </c>
       <c r="E64" t="str">
         <f t="shared" si="0"/>
         <v>O 31 1966</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="6">
+      <c r="F64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="5">
         <v>1966</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="5" t="s">
         <v>1790</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C65" s="5" t="s">
         <v>1791</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D65" s="5">
         <v>116</v>
       </c>
       <c r="E65" t="str">
         <f t="shared" si="0"/>
         <v>N 14 1966</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="6">
+      <c r="F65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="8">
         <v>1966</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="8" t="s">
         <v>1796</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="8" t="s">
         <v>1797</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D66" s="8">
         <v>11</v>
       </c>
-      <c r="E66" t="str">
+      <c r="E66" s="7" t="str">
         <f t="shared" si="0"/>
         <v>D 5 1966</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67">
+      <c r="F66" s="7" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="7">
         <v>1967</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="7" t="s">
         <v>1804</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="7" t="s">
         <v>1805</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="7">
         <v>72</v>
       </c>
-      <c r="E67" t="str">
+      <c r="E67" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Ja 9 1967</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68">
+      <c r="F67" s="7" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="7">
         <v>1967</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="7" t="s">
         <v>1806</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="7" t="s">
         <v>1807</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="7">
         <v>104</v>
       </c>
-      <c r="E68" t="str">
+      <c r="E68" s="7" t="str">
         <f t="shared" si="0"/>
         <v>F 20 1967</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69">
+      <c r="F68" s="7" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="7">
         <v>1967</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="7" t="s">
         <v>1808</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="7" t="s">
         <v>1809</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="7">
         <v>100</v>
       </c>
-      <c r="E69" t="str">
+      <c r="E69" s="7" t="str">
         <f t="shared" ref="E69:E78" si="1">CONCATENATE(C69, " ",A69)</f>
         <v>Ap 3 1967</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70">
+      <c r="F69" s="7" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="7">
         <v>1967</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="7" t="s">
         <v>1810</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="7" t="s">
         <v>1811</v>
       </c>
-      <c r="D70">
-        <v>96</v>
-      </c>
-      <c r="E70" t="str">
+      <c r="D70" s="7">
+        <v>96</v>
+      </c>
+      <c r="E70" s="7" t="str">
         <f t="shared" si="1"/>
         <v>My 1 1967</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71">
+      <c r="F70" s="7" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="7">
         <v>1967</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="7" t="s">
         <v>1812</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="7" t="s">
         <v>1813</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="7">
         <v>80</v>
       </c>
-      <c r="E71" t="str">
+      <c r="E71" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Je 26 1967</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72">
+      <c r="F71" s="7" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="7">
         <v>1967</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="7" t="s">
         <v>1814</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="7" t="s">
         <v>1815</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="7">
         <v>80</v>
       </c>
-      <c r="E72" t="str">
+      <c r="E72" s="7" t="str">
         <f t="shared" si="1"/>
         <v>Jl 24 1967</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F72" s="7" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1967</v>
       </c>
@@ -63188,8 +63761,11 @@
         <f t="shared" si="1"/>
         <v>Ag 21 1967</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1967</v>
       </c>
@@ -63206,8 +63782,11 @@
         <f t="shared" si="1"/>
         <v>S 18 1967</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F74" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1967</v>
       </c>
@@ -63224,8 +63803,11 @@
         <f t="shared" si="1"/>
         <v>O 30 1967</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1967</v>
       </c>
@@ -63242,8 +63824,11 @@
         <f t="shared" si="1"/>
         <v>N 13 1967</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F76" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1967</v>
       </c>
@@ -63260,8 +63845,11 @@
         <f t="shared" si="1"/>
         <v>D 11 1967</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F77" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1967</v>
       </c>
@@ -63278,6 +63866,17 @@
         <f t="shared" si="1"/>
         <v>D 25 1967</v>
       </c>
+      <c r="F78" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -63285,11 +63884,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A20F795-77A5-4A44-92F8-E016F71D03E6}">
   <dimension ref="A1:D218"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A195" sqref="A195:D218"/>
     </sheetView>
   </sheetViews>
@@ -63419,7 +64018,7 @@
       <c r="A10">
         <v>1963</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>1453</v>
       </c>
       <c r="C10" t="s">
@@ -65404,604 +66003,604 @@
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" s="6">
+      <c r="A152" s="5">
         <v>1966</v>
       </c>
-      <c r="B152" s="6" t="s">
+      <c r="B152" s="5" t="s">
         <v>1718</v>
       </c>
-      <c r="C152" s="6" t="s">
+      <c r="C152" s="5" t="s">
         <v>1719</v>
       </c>
-      <c r="D152" s="6">
+      <c r="D152" s="5">
         <v>60</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" s="6">
+      <c r="A153" s="5">
         <v>1966</v>
       </c>
-      <c r="B153" s="6" t="s">
+      <c r="B153" s="5" t="s">
         <v>1720</v>
       </c>
-      <c r="C153" s="6" t="s">
+      <c r="C153" s="5" t="s">
         <v>1721</v>
       </c>
-      <c r="D153" s="6">
+      <c r="D153" s="5">
         <v>68</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154" s="6">
+      <c r="A154" s="5">
         <v>1966</v>
       </c>
-      <c r="B154" s="6" t="s">
+      <c r="B154" s="5" t="s">
         <v>1722</v>
       </c>
-      <c r="C154" s="6" t="s">
+      <c r="C154" s="5" t="s">
         <v>1723</v>
       </c>
-      <c r="D154" s="6">
+      <c r="D154" s="5">
         <v>92</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A155" s="6">
+      <c r="A155" s="5">
         <v>1966</v>
       </c>
-      <c r="B155" s="6" t="s">
+      <c r="B155" s="5" t="s">
         <v>1724</v>
       </c>
-      <c r="C155" s="6" t="s">
+      <c r="C155" s="5" t="s">
         <v>1725</v>
       </c>
-      <c r="D155" s="6">
+      <c r="D155" s="5">
         <v>80</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156" s="6">
+      <c r="A156" s="5">
         <v>1966</v>
       </c>
-      <c r="B156" s="6" t="s">
+      <c r="B156" s="5" t="s">
         <v>1726</v>
       </c>
-      <c r="C156" s="6" t="s">
+      <c r="C156" s="5" t="s">
         <v>1727</v>
       </c>
-      <c r="D156" s="6">
+      <c r="D156" s="5">
         <v>88</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157" s="6">
+      <c r="A157" s="5">
         <v>1966</v>
       </c>
-      <c r="B157" s="6" t="s">
+      <c r="B157" s="5" t="s">
         <v>1728</v>
       </c>
-      <c r="C157" s="6" t="s">
+      <c r="C157" s="5" t="s">
         <v>1729</v>
       </c>
-      <c r="D157" s="6">
+      <c r="D157" s="5">
         <v>100</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158" s="6">
+      <c r="A158" s="5">
         <v>1966</v>
       </c>
-      <c r="B158" s="6" t="s">
+      <c r="B158" s="5" t="s">
         <v>1730</v>
       </c>
-      <c r="C158" s="6" t="s">
+      <c r="C158" s="5" t="s">
         <v>1731</v>
       </c>
-      <c r="D158" s="6">
+      <c r="D158" s="5">
         <v>106</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A159" s="6">
+      <c r="A159" s="5">
         <v>1966</v>
       </c>
-      <c r="B159" s="6" t="s">
+      <c r="B159" s="5" t="s">
         <v>1732</v>
       </c>
-      <c r="C159" s="6" t="s">
+      <c r="C159" s="5" t="s">
         <v>1733</v>
       </c>
-      <c r="D159" s="6">
+      <c r="D159" s="5">
         <v>96</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A160" s="6">
+      <c r="A160" s="5">
         <v>1966</v>
       </c>
-      <c r="B160" s="6" t="s">
+      <c r="B160" s="5" t="s">
         <v>1734</v>
       </c>
-      <c r="C160" s="6" t="s">
+      <c r="C160" s="5" t="s">
         <v>1735</v>
       </c>
-      <c r="D160" s="6">
+      <c r="D160" s="5">
         <v>104</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A161" s="6">
+      <c r="A161" s="5">
         <v>1966</v>
       </c>
-      <c r="B161" s="6" t="s">
+      <c r="B161" s="5" t="s">
         <v>1736</v>
       </c>
-      <c r="C161" s="6" t="s">
+      <c r="C161" s="5" t="s">
         <v>1737</v>
       </c>
-      <c r="D161" s="6">
+      <c r="D161" s="5">
         <v>108</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A162" s="6">
+      <c r="A162" s="5">
         <v>1966</v>
       </c>
-      <c r="B162" s="6" t="s">
+      <c r="B162" s="5" t="s">
         <v>1738</v>
       </c>
-      <c r="C162" s="6" t="s">
+      <c r="C162" s="5" t="s">
         <v>1739</v>
       </c>
-      <c r="D162" s="6">
+      <c r="D162" s="5">
         <v>112</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A163" s="6">
+      <c r="A163" s="5">
         <v>1966</v>
       </c>
-      <c r="B163" s="6" t="s">
+      <c r="B163" s="5" t="s">
         <v>1740</v>
       </c>
-      <c r="C163" s="6" t="s">
+      <c r="C163" s="5" t="s">
         <v>1741</v>
       </c>
-      <c r="D163" s="6">
+      <c r="D163" s="5">
         <v>108</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A164" s="6">
+      <c r="A164" s="5">
         <v>1966</v>
       </c>
-      <c r="B164" s="6" t="s">
+      <c r="B164" s="5" t="s">
         <v>1742</v>
       </c>
-      <c r="C164" s="6" t="s">
+      <c r="C164" s="5" t="s">
         <v>1743</v>
       </c>
-      <c r="D164" s="6">
+      <c r="D164" s="5">
         <v>104</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A165" s="6">
+      <c r="A165" s="5">
         <v>1966</v>
       </c>
-      <c r="B165" s="6" t="s">
+      <c r="B165" s="5" t="s">
         <v>1744</v>
       </c>
-      <c r="C165" s="6" t="s">
+      <c r="C165" s="5" t="s">
         <v>1745</v>
       </c>
-      <c r="D165" s="6">
+      <c r="D165" s="5">
         <v>116</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A166" s="6">
+      <c r="A166" s="5">
         <v>1966</v>
       </c>
-      <c r="B166" s="6" t="s">
+      <c r="B166" s="5" t="s">
         <v>1746</v>
       </c>
-      <c r="C166" s="6" t="s">
+      <c r="C166" s="5" t="s">
         <v>1747</v>
       </c>
-      <c r="D166" s="6">
+      <c r="D166" s="5">
         <v>116</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A167" s="6">
+      <c r="A167" s="5">
         <v>1966</v>
       </c>
-      <c r="B167" s="6" t="s">
+      <c r="B167" s="5" t="s">
         <v>1748</v>
       </c>
-      <c r="C167" s="6" t="s">
+      <c r="C167" s="5" t="s">
         <v>1749</v>
       </c>
-      <c r="D167" s="6">
+      <c r="D167" s="5">
         <v>96</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A168" s="6">
+      <c r="A168" s="5">
         <v>1966</v>
       </c>
-      <c r="B168" s="6" t="s">
+      <c r="B168" s="5" t="s">
         <v>1750</v>
       </c>
-      <c r="C168" s="6" t="s">
+      <c r="C168" s="5" t="s">
         <v>1751</v>
       </c>
-      <c r="D168" s="6">
+      <c r="D168" s="5">
         <v>108</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A169" s="6">
+      <c r="A169" s="5">
         <v>1966</v>
       </c>
-      <c r="B169" s="6" t="s">
+      <c r="B169" s="5" t="s">
         <v>1752</v>
       </c>
-      <c r="C169" s="6" t="s">
+      <c r="C169" s="5" t="s">
         <v>1753</v>
       </c>
-      <c r="D169" s="6">
+      <c r="D169" s="5">
         <v>108</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A170" s="6">
+      <c r="A170" s="5">
         <v>1966</v>
       </c>
-      <c r="B170" s="6" t="s">
+      <c r="B170" s="5" t="s">
         <v>1754</v>
       </c>
-      <c r="C170" s="6" t="s">
+      <c r="C170" s="5" t="s">
         <v>1755</v>
       </c>
-      <c r="D170" s="6">
+      <c r="D170" s="5">
         <v>124</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A171" s="6">
+      <c r="A171" s="5">
         <v>1966</v>
       </c>
-      <c r="B171" s="6" t="s">
+      <c r="B171" s="5" t="s">
         <v>1756</v>
       </c>
-      <c r="C171" s="6" t="s">
+      <c r="C171" s="5" t="s">
         <v>1757</v>
       </c>
-      <c r="D171" s="6">
+      <c r="D171" s="5">
         <v>124</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A172" s="6">
+      <c r="A172" s="5">
         <v>1966</v>
       </c>
-      <c r="B172" s="6" t="s">
+      <c r="B172" s="5" t="s">
         <v>1758</v>
       </c>
-      <c r="C172" s="6" t="s">
+      <c r="C172" s="5" t="s">
         <v>1759</v>
       </c>
-      <c r="D172" s="6">
+      <c r="D172" s="5">
         <v>98</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A173" s="6">
+      <c r="A173" s="5">
         <v>1966</v>
       </c>
-      <c r="B173" s="6" t="s">
+      <c r="B173" s="5" t="s">
         <v>1760</v>
       </c>
-      <c r="C173" s="6" t="s">
+      <c r="C173" s="5" t="s">
         <v>1761</v>
       </c>
-      <c r="D173" s="6">
+      <c r="D173" s="5">
         <v>104</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A174" s="6">
+      <c r="A174" s="5">
         <v>1966</v>
       </c>
-      <c r="B174" s="6" t="s">
+      <c r="B174" s="5" t="s">
         <v>1762</v>
       </c>
-      <c r="C174" s="6" t="s">
+      <c r="C174" s="5" t="s">
         <v>1763</v>
       </c>
-      <c r="D174" s="6">
+      <c r="D174" s="5">
         <v>124</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A175" s="6">
+      <c r="A175" s="5">
         <v>1966</v>
       </c>
-      <c r="B175" s="6" t="s">
+      <c r="B175" s="5" t="s">
         <v>1764</v>
       </c>
-      <c r="C175" s="6" t="s">
+      <c r="C175" s="5" t="s">
         <v>1765</v>
       </c>
-      <c r="D175" s="6">
+      <c r="D175" s="5">
         <v>112</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A176" s="6">
+      <c r="A176" s="5">
         <v>1966</v>
       </c>
-      <c r="B176" s="6" t="s">
+      <c r="B176" s="5" t="s">
         <v>1766</v>
       </c>
-      <c r="C176" s="6" t="s">
+      <c r="C176" s="5" t="s">
         <v>1767</v>
       </c>
-      <c r="D176" s="6">
+      <c r="D176" s="5">
         <v>98</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A177" s="6">
+      <c r="A177" s="5">
         <v>1966</v>
       </c>
-      <c r="B177" s="6" t="s">
+      <c r="B177" s="5" t="s">
         <v>1768</v>
       </c>
-      <c r="C177" s="6" t="s">
+      <c r="C177" s="5" t="s">
         <v>1769</v>
       </c>
-      <c r="D177" s="6">
+      <c r="D177" s="5">
         <v>92</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A178" s="6">
+      <c r="A178" s="5">
         <v>1966</v>
       </c>
-      <c r="B178" s="6" t="s">
+      <c r="B178" s="5" t="s">
         <v>1770</v>
       </c>
-      <c r="C178" s="6" t="s">
+      <c r="C178" s="5" t="s">
         <v>1771</v>
       </c>
-      <c r="D178" s="6">
+      <c r="D178" s="5">
         <v>100</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A179" s="6">
+      <c r="A179" s="5">
         <v>1966</v>
       </c>
-      <c r="B179" s="6" t="s">
+      <c r="B179" s="5" t="s">
         <v>1772</v>
       </c>
-      <c r="C179" s="6" t="s">
+      <c r="C179" s="5" t="s">
         <v>1773</v>
       </c>
-      <c r="D179" s="6">
+      <c r="D179" s="5">
         <v>88</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A180" s="6">
+      <c r="A180" s="5">
         <v>1966</v>
       </c>
-      <c r="B180" s="6" t="s">
+      <c r="B180" s="5" t="s">
         <v>1774</v>
       </c>
-      <c r="C180" s="6" t="s">
+      <c r="C180" s="5" t="s">
         <v>1775</v>
       </c>
-      <c r="D180" s="6">
+      <c r="D180" s="5">
         <v>84</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A181" s="6">
+      <c r="A181" s="5">
         <v>1966</v>
       </c>
-      <c r="B181" s="6" t="s">
+      <c r="B181" s="5" t="s">
         <v>1776</v>
       </c>
-      <c r="C181" s="6" t="s">
+      <c r="C181" s="5" t="s">
         <v>1777</v>
       </c>
-      <c r="D181" s="6">
+      <c r="D181" s="5">
         <v>92</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A182" s="6">
+      <c r="A182" s="5">
         <v>1966</v>
       </c>
-      <c r="B182" s="6" t="s">
+      <c r="B182" s="5" t="s">
         <v>1778</v>
       </c>
-      <c r="C182" s="6" t="s">
+      <c r="C182" s="5" t="s">
         <v>1779</v>
       </c>
-      <c r="D182" s="6">
+      <c r="D182" s="5">
         <v>76</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A183" s="6">
+      <c r="A183" s="5">
         <v>1966</v>
       </c>
-      <c r="B183" s="6" t="s">
+      <c r="B183" s="5" t="s">
         <v>1780</v>
       </c>
-      <c r="C183" s="6" t="s">
+      <c r="C183" s="5" t="s">
         <v>1781</v>
       </c>
-      <c r="D183" s="6">
+      <c r="D183" s="5">
         <v>124</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A184" s="6">
+      <c r="A184" s="5">
         <v>1966</v>
       </c>
-      <c r="B184" s="6" t="s">
+      <c r="B184" s="5" t="s">
         <v>1782</v>
       </c>
-      <c r="C184" s="6" t="s">
+      <c r="C184" s="5" t="s">
         <v>1783</v>
       </c>
-      <c r="D184" s="6">
+      <c r="D184" s="5">
         <v>114</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A185" s="6">
+      <c r="A185" s="5">
         <v>1966</v>
       </c>
-      <c r="B185" s="6" t="s">
+      <c r="B185" s="5" t="s">
         <v>1784</v>
       </c>
-      <c r="C185" s="6" t="s">
+      <c r="C185" s="5" t="s">
         <v>1785</v>
       </c>
-      <c r="D185" s="6">
+      <c r="D185" s="5">
         <v>126</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A186" s="6">
+      <c r="A186" s="5">
         <v>1966</v>
       </c>
-      <c r="B186" s="6" t="s">
+      <c r="B186" s="5" t="s">
         <v>1786</v>
       </c>
-      <c r="C186" s="6" t="s">
+      <c r="C186" s="5" t="s">
         <v>1787</v>
       </c>
-      <c r="D186" s="6">
+      <c r="D186" s="5">
         <v>120</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A187" s="6">
+      <c r="A187" s="5">
         <v>1966</v>
       </c>
-      <c r="B187" s="6" t="s">
+      <c r="B187" s="5" t="s">
         <v>1788</v>
       </c>
-      <c r="C187" s="6" t="s">
+      <c r="C187" s="5" t="s">
         <v>1789</v>
       </c>
-      <c r="D187" s="6">
+      <c r="D187" s="5">
         <v>116</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A188" s="6">
+      <c r="A188" s="5">
         <v>1966</v>
       </c>
-      <c r="B188" s="6" t="s">
+      <c r="B188" s="5" t="s">
         <v>1790</v>
       </c>
-      <c r="C188" s="6" t="s">
+      <c r="C188" s="5" t="s">
         <v>1791</v>
       </c>
-      <c r="D188" s="6">
+      <c r="D188" s="5">
         <v>116</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A189" s="6">
+      <c r="A189" s="5">
         <v>1966</v>
       </c>
-      <c r="B189" s="6" t="s">
+      <c r="B189" s="5" t="s">
         <v>1792</v>
       </c>
-      <c r="C189" s="6" t="s">
+      <c r="C189" s="5" t="s">
         <v>1793</v>
       </c>
-      <c r="D189" s="6">
+      <c r="D189" s="5">
         <v>136</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" s="6">
+      <c r="A190" s="5">
         <v>1966</v>
       </c>
-      <c r="B190" s="6" t="s">
+      <c r="B190" s="5" t="s">
         <v>1794</v>
       </c>
-      <c r="C190" s="6" t="s">
+      <c r="C190" s="5" t="s">
         <v>1795</v>
       </c>
-      <c r="D190" s="6">
+      <c r="D190" s="5">
         <v>120</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A191" s="6">
+      <c r="A191" s="5">
         <v>1966</v>
       </c>
-      <c r="B191" s="6" t="s">
+      <c r="B191" s="5" t="s">
         <v>1796</v>
       </c>
-      <c r="C191" s="6" t="s">
+      <c r="C191" s="5" t="s">
         <v>1797</v>
       </c>
-      <c r="D191" s="6">
+      <c r="D191" s="5">
         <v>11</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A192" s="6">
+      <c r="A192" s="5">
         <v>1966</v>
       </c>
-      <c r="B192" s="6" t="s">
+      <c r="B192" s="5" t="s">
         <v>1798</v>
       </c>
-      <c r="C192" s="6" t="s">
+      <c r="C192" s="5" t="s">
         <v>1799</v>
       </c>
-      <c r="D192" s="6">
+      <c r="D192" s="5">
         <v>116</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193" s="6">
+      <c r="A193" s="5">
         <v>1966</v>
       </c>
-      <c r="B193" s="6" t="s">
+      <c r="B193" s="5" t="s">
         <v>1800</v>
       </c>
-      <c r="C193" s="6" t="s">
+      <c r="C193" s="5" t="s">
         <v>1801</v>
       </c>
-      <c r="D193" s="6">
+      <c r="D193" s="5">
         <v>120</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A194" s="6">
+      <c r="A194" s="5">
         <v>1966</v>
       </c>
-      <c r="B194" s="6" t="s">
+      <c r="B194" s="5" t="s">
         <v>1802</v>
       </c>
-      <c r="C194" s="6" t="s">
+      <c r="C194" s="5" t="s">
         <v>1803</v>
       </c>
-      <c r="D194" s="6">
+      <c r="D194" s="5">
         <v>76</v>
       </c>
     </row>
@@ -66346,12 +66945,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF83D1F-9B36-814C-9FE6-BF67F50CA967}">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -66573,336 +67172,6 @@
       <c r="E13" t="s">
         <v>1515</v>
       </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:E13" xr:uid="{8DF83D1F-9B36-814C-9FE6-BF67F50CA967}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7213D02-729C-8045-8BC1-24DC53D8B784}">
-  <dimension ref="A1:D50"/>
-  <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <f>(1968-1937)</f>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <f>(B4*B3)</f>
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9">
-        <f>(B8*B7)</f>
-        <v>372</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1">
-        <f>(B9/$B$5)</f>
-        <v>0.22222222222222221</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14">
-        <f>(B13*B12)</f>
-        <v>744</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1">
-        <f>(B14/$B$5)</f>
-        <v>0.44444444444444442</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>1937</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>1938</v>
-      </c>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>1939</v>
-      </c>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>1940</v>
-      </c>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>1941</v>
-      </c>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>1942</v>
-      </c>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>1943</v>
-      </c>
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <v>1944</v>
-      </c>
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
-        <v>1945</v>
-      </c>
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
-        <v>1946</v>
-      </c>
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
-        <v>1947</v>
-      </c>
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
-        <v>1948</v>
-      </c>
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
-        <v>1949</v>
-      </c>
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
-        <v>1950</v>
-      </c>
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
-        <v>1951</v>
-      </c>
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
-        <v>1952</v>
-      </c>
-      <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
-        <v>1953</v>
-      </c>
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
-        <v>1954</v>
-      </c>
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
-        <v>1955</v>
-      </c>
-      <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
-        <v>1956</v>
-      </c>
-      <c r="B38" s="2"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
-        <v>1957</v>
-      </c>
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
-        <v>1958</v>
-      </c>
-      <c r="B40" s="2"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
-        <v>1959</v>
-      </c>
-      <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
-        <v>1960</v>
-      </c>
-      <c r="B42" s="2"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
-        <v>1961</v>
-      </c>
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
-        <v>1962</v>
-      </c>
-      <c r="B44" s="2"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
-        <v>1963</v>
-      </c>
-      <c r="B45" s="2"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
-        <v>1964</v>
-      </c>
-      <c r="B46" s="2"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="2">
-        <v>1965</v>
-      </c>
-      <c r="B47" s="2"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="2">
-        <v>1966</v>
-      </c>
-      <c r="B48" s="2"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
-        <v>1967</v>
-      </c>
-      <c r="B49" s="2"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
-        <v>1968</v>
-      </c>
-      <c r="B50" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -66913,7 +67182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F35220-38B4-714C-B3D5-8B5620C32EFE}">
   <dimension ref="A1:A599"/>
   <sheetViews>
-    <sheetView topLeftCell="A558" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A577" sqref="A2:A577"/>
     </sheetView>
   </sheetViews>
@@ -69917,4 +70186,403 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A4D7DA-64C3-AC4B-A052-D4C8DF73E21C}">
+  <dimension ref="A2:B49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>348</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/newsweek_sample_size.xlsx
+++ b/newsweek_sample_size.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robwells/Code/Moley/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE4C9AB-2FDF-434D-8648-9349BF8FECD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410D2E1F-4019-C34D-9FE8-BF33DB6BA736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12480" yWindow="1140" windowWidth="25920" windowHeight="17380" activeTab="6" xr2:uid="{D99F4B0B-A73A-7A41-8F4C-94B51F6DE199}"/>
+    <workbookView xWindow="12480" yWindow="1140" windowWidth="25920" windowHeight="17380" xr2:uid="{D99F4B0B-A73A-7A41-8F4C-94B51F6DE199}"/>
   </bookViews>
   <sheets>
     <sheet name="stratified sample " sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10914" uniqueCount="1857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10919" uniqueCount="1858">
   <si>
     <t>Random Sample of Newsweek Coverage</t>
   </si>
@@ -5617,6 +5617,9 @@
   </si>
   <si>
     <t>partial</t>
+  </si>
+  <si>
+    <t>Extracted Text</t>
   </si>
 </sst>
 </file>
@@ -6043,14 +6046,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7213D02-729C-8045-8BC1-24DC53D8B784}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.6640625" customWidth="1"/>
     <col min="2" max="2" width="21.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -6158,18 +6162,21 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>1937</v>
       </c>
@@ -6177,31 +6184,39 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
         <v>1938</v>
       </c>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+      <c r="B20" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
         <v>1939</v>
       </c>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+      <c r="B21" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
         <v>1940</v>
       </c>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
+      <c r="B22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
         <v>1941</v>
       </c>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>1942</v>
       </c>
@@ -6209,25 +6224,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>1943</v>
       </c>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>1944</v>
       </c>
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>1945</v>
       </c>
       <c r="B27" s="2"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>1946</v>
       </c>
@@ -6235,13 +6250,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>1947</v>
       </c>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>1948</v>
       </c>
@@ -6249,13 +6264,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>1949</v>
       </c>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>1950</v>
       </c>
@@ -70192,7 +70207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A4D7DA-64C3-AC4B-A052-D4C8DF73E21C}">
   <dimension ref="A2:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>

--- a/newsweek_sample_size.xlsx
+++ b/newsweek_sample_size.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robwells/Code/Moley/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410D2E1F-4019-C34D-9FE8-BF33DB6BA736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D16712B-D40E-E34E-BA4E-46E6940759DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12480" yWindow="1140" windowWidth="25920" windowHeight="17380" xr2:uid="{D99F4B0B-A73A-7A41-8F4C-94B51F6DE199}"/>
+    <workbookView xWindow="-21000" yWindow="-11500" windowWidth="21000" windowHeight="17380" activeTab="1" xr2:uid="{D99F4B0B-A73A-7A41-8F4C-94B51F6DE199}"/>
   </bookViews>
   <sheets>
     <sheet name="stratified sample " sheetId="1" r:id="rId1"/>
-    <sheet name="newsweek_index_37_61" sheetId="3" r:id="rId2"/>
-    <sheet name="for ILL sample_1962-69" sheetId="4" r:id="rId3"/>
-    <sheet name="full list moley columns 63-69" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId5"/>
-    <sheet name="Sample_1" sheetId="2" r:id="rId6"/>
-    <sheet name="Stratified Sample" sheetId="7" r:id="rId7"/>
+    <sheet name="Stratified by year" sheetId="7" r:id="rId2"/>
+    <sheet name="newsweek_index_37_61" sheetId="3" r:id="rId3"/>
+    <sheet name="for ILL sample_1962-69" sheetId="4" r:id="rId4"/>
+    <sheet name="full list moley columns 63-69" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
+    <sheet name="Sample_1" sheetId="2" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'for ILL sample_1962-69'!$A$3:$F$78</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet2!$A$1:$E$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'for ILL sample_1962-69'!$A$3:$F$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Sheet2!$A$1:$E$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10919" uniqueCount="1858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11132" uniqueCount="2097">
   <si>
     <t>Random Sample of Newsweek Coverage</t>
   </si>
@@ -5620,6 +5620,723 @@
   </si>
   <si>
     <t>Extracted Text</t>
+  </si>
+  <si>
+    <t>#1958 sample</t>
+  </si>
+  <si>
+    <t>sample &lt;- c(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1958-01-27_51_4, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1958-02-17_51_7, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1958-03-24_51_12, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1958-04-07_51_14, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1958-05-12_51_19, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1958-06-16_51_24, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1958-07-21_52_3, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1958-08-25_52_8, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1958-09-22_52_12, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1958-10-13_52_15, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1958-11-17_52_20, </t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>#1954 sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1954-01-25_43_4, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1954-02-01_43_5, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1954-03-29_43_13, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1954-04-19_43_16, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1954-05-17_43_20, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1954-06-14_43_24, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1954-07-05_44_1, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1954-08-09_44_6, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1954-09-13_44_11, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1954-10-25_44_17, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1954-11-08_44_19, </t>
+  </si>
+  <si>
+    <t>#1952 sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1952-01-21_39_3, </t>
+  </si>
+  <si>
+    <t>sim_newsweek-us_1952-02-18_39_7 ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1952-03-03_39_9, </t>
+  </si>
+  <si>
+    <t>sim_newsweek-us_1952-04-14_39_15,</t>
+  </si>
+  <si>
+    <t>sim_newsweek-us_1952-05-19_39_20,</t>
+  </si>
+  <si>
+    <t>sim_newsweek-us_1952-06-23_39_25,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1952-07-21_40_3, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1952-08-18_40_7, </t>
+  </si>
+  <si>
+    <t>sim_newsweek-us_1952-09-22_40_12,</t>
+  </si>
+  <si>
+    <t>sim_newsweek-us_1952-10-27_40_17,</t>
+  </si>
+  <si>
+    <t>sim_newsweek-us_1952-11-24_40_22,</t>
+  </si>
+  <si>
+    <t>#1951 sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1951-01-01_37_1, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1951-02-26_37_9, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1951-03-26_37_13, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1951-04-09_37_15, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1951-05-14_37_20, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1951-06-11_37_24, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1951-07-16_38_3, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1951-08-13_38_7, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1951-09-24_38_13, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1951-10-22_38_17, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1951-11-26_38_22, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1951-12-24_38_26, </t>
+  </si>
+  <si>
+    <t>#1950 sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1950-01-02_35_1, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1950-02-06_35_6, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1950-03-06_35_10, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1950-04-17_35_16, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1950-05-01_35_18, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1950-06-19_35_25, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1950-07-31_36_5, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1950-08-21_36_8, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1950-09-25_36_13, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1950-10-23_36_17, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1950-11-27_36_22, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1950-12-11_36_24, </t>
+  </si>
+  <si>
+    <t>#1949 sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1949-01-24_33_4, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1949-02-14_33_7, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1949-03-14_33_11, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1949-04-18_33_16, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1949-05-09_33_19, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1949-06-27_33_26, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1949-07-18_34_3, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1949-08-01_34_5, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1949-09-19_34_12, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1949-10-24_34_17, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1949-11-21_34_21, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1949-12-12_34_24, </t>
+  </si>
+  <si>
+    <t>#1948 sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1948-01-26_31_4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1948-02-09_31_6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1948-03-01_31_9 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1948-07-26_32_4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1948-08-09_32_6 </t>
+  </si>
+  <si>
+    <t>#1947 sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1947-01-20_29_3, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1947-02-03_29_5, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1947-03-31_29_13, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1947-04-14_29_15, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1947-05-19_29_20, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1947-06-09_29_23, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1947-07-14_30_2, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1947-08-25_30_8, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1947-09-22_30_12, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1947-10-27_30_17, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1947-11-17_30_20, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1947-12-15_30_24, </t>
+  </si>
+  <si>
+    <t>#1946 sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1946-01-21_27_3, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1946-02-04_27_5, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1946-03-11_27_10, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1946-04-29_27_17, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1946-05-13_27_19, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1946-06-24_27_25, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1946-07-08_28_2, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1946-08-19_28_8, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1946-09-16_28_12, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1946-10-14_28_16, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1946-11-11_28_20, </t>
+  </si>
+  <si>
+    <t>#1942 sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1942-01-19_19_3, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1942-02-02_19_5, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1942-03-23_19_12, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1942-04-20_19_16, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1942-05-11_19_19, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1942-06-01_19_22, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1942-07-06_20_1, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1942-08-24_20_8, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1942-09-28_20_13, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1942-10-19_20_16, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1942-11-16_20_20, </t>
+  </si>
+  <si>
+    <t>#1941-1938 sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1938-01-17_11_3, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1938-02-07_11_6, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1938-03-28_11_13, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1938-04-25_11_17, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1938-05-30_11_22, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1938-06-27_11_26, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1938-07-11_12_2, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1938-08-22_12_8, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1938-09-12_12_11, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1938-10-31_12_18, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1938-11-07_12_19, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1938-12-19_12_25, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1939-01-16_13_3, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1939-02-06_13_6, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1939-03-27_13_13, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1939-04-10_13_15, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1939-05-08_13_19, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1939-06-26_13_26, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1939-07-03_14_1, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1939-08-14_14_7, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1939-09-11_14_11, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1939-10-30_14_18, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1939-11-06_14_19, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1939-12-25_14_26, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1940-01-01_15_1, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1940-02-26_15_9, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1940-03-04_15_10, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1940-04-01_15_14, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1940-05-06_15_19, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1940-06-10_15_24, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1940-07-29_16_5, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1940-08-26_16_9, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1940-09-02_16_10, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1940-10-14_16_16, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1940-11-11_16_20, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1940-12-09_16_24, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1941-01-06_17_1, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1941-02-17_17_7, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1941-03-03_17_9, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1941-04-28_17_17, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1941-05-26_17_21, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1941-06-23_17_25, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1941-07-14_18_2, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1941-08-11_18_6, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1941-09-15_18_11, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1941-10-13_18_15, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1941-11-24_18_21, </t>
+  </si>
+  <si>
+    <t>sim_newsweek-us_1941-12-29_18_26,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1937 sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sample = [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "sim_newsweek-us_1937-01-09_9_2",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "sim_newsweek-us_1937-02-27_9_9",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "sim_newsweek-us_1937-03-13_9_11",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "sim_newsweek-us_1937-04-10_9_15",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "sim_newsweek-us_1937-05-22_9_21",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "sim_newsweek-us_1937-06-05_9_23",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "sim_newsweek-us_1937-07-31_10_5",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "sim_newsweek-us_1937-08-14_10_7",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "sim_newsweek-us_1937-09-06_10_10",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "sim_newsweek-us_1937-10-25_10_17",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "sim_newsweek-us_1937-11-15_10_20",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "sim_newsweek-us_1937-12-06_10_23"</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>files locked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1953-01-26_41_4, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1953-02-23_41_8, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1953-03-23_41_12, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1953-04-06_41_14, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1953-05-25_41_21, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1953-06-22_41_25, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1953-07-13_42_2, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1953-08-24_42_8, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1953-09-28_42_13, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1953-10-12_42_15, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1953-11-30_42_22, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1953-12-07_42_23, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1955-01-03_45_1, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1955-02-21_45_8, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1955-03-28_45_13, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1955-04-11_45_15, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1955-05-30_45_22, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1955-06-13_45_24, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1955-07-18_46_3, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1955-08-08_46_6, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1955-09-19_46_12, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1955-10-10_46_15, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1955-11-28_46_22, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1955-12-05_46_23, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1957-01-28_49_4, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1957-02-25_49_8, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1957-03-18_49_11, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1957-04-29_49_17, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1957-05-06_49_18, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1957-06-03_49_22, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1957-07-08_50_2, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1957-08-26_50_9, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1957-09-16_50_12, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1957-10-21_50_17, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1957-11-18_50_21, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1957-12-09_50_24, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1959-01-26_53_4, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1959-02-23_53_8, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1959-03-02_53_9, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1959-04-20_53_16, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1959-05-04_53_18, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1959-06-29_53_26, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1959-07-06_54_1, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1959-08-31_54_9, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1959-09-28_54_13, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1959-10-26_54_17, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1959-11-30_54_22, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1959-12-14_54_24, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sim_newsweek-us_1953_41_index, </t>
+  </si>
+  <si>
+    <t>1953 sample</t>
+  </si>
+  <si>
+    <t>1955 sample</t>
+  </si>
+  <si>
+    <t>1957 sample</t>
+  </si>
+  <si>
+    <t>1959 sample</t>
   </si>
 </sst>
 </file>
@@ -5649,7 +6366,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5665,6 +6382,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5697,7 +6420,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -5709,6 +6432,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6046,8 +6770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7213D02-729C-8045-8BC1-24DC53D8B784}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6225,22 +6949,28 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
+      <c r="A25" s="3">
         <v>1943</v>
       </c>
-      <c r="B25" s="2"/>
+      <c r="B25" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
+      <c r="A26" s="3">
         <v>1944</v>
       </c>
-      <c r="B26" s="2"/>
+      <c r="B26" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
+      <c r="A27" s="3">
         <v>1945</v>
       </c>
-      <c r="B27" s="2"/>
+      <c r="B27" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
@@ -6251,10 +6981,12 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
+      <c r="A29" s="3">
         <v>1947</v>
       </c>
-      <c r="B29" s="2"/>
+      <c r="B29" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
@@ -6265,24 +6997,33 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
+      <c r="A31" s="3">
         <v>1949</v>
       </c>
-      <c r="B31" s="2"/>
+      <c r="B31" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
+      <c r="A32" s="3">
         <v>1950</v>
       </c>
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
+      <c r="B32" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="9">
         <v>1951</v>
       </c>
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="9" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>1952</v>
       </c>
@@ -6290,13 +7031,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>1953</v>
       </c>
       <c r="B35" s="2"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>1954</v>
       </c>
@@ -6304,13 +7045,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>1955</v>
       </c>
       <c r="B37" s="2"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>1956</v>
       </c>
@@ -6318,13 +7059,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>1957</v>
       </c>
       <c r="B39" s="2"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>1958</v>
       </c>
@@ -6332,25 +7073,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>1959</v>
       </c>
       <c r="B41" s="2"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>1960</v>
       </c>
       <c r="B42" s="2"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>1961</v>
       </c>
       <c r="B43" s="2"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>1962</v>
       </c>
@@ -6358,7 +7099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>1963</v>
       </c>
@@ -6366,7 +7107,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>1964</v>
       </c>
@@ -6374,7 +7115,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>1965</v>
       </c>
@@ -6382,7 +7123,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>1966</v>
       </c>
@@ -6408,10 +7149,1290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A4D7DA-64C3-AC4B-A052-D4C8DF73E21C}">
+  <dimension ref="B2:B273"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A257" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B110" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B111" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B112" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B113" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B115" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B116" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B117" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B119" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B121" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B122" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B123" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B125" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B126" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B127" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B128" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B129" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B130" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B131" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B133" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B134" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B135" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B136" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B137" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B138" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B139" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B140" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B141" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B142" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B143" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B144" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B145" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B148" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B149" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B150" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B151" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B152" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B153" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B154" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B155" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B156" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B157" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B158" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B159" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B160" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B162" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B163" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B164" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B165" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B166" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B167" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B168" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B169" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B170" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B171" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B172" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B173" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B174" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B177" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B178" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B179" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B180" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B181" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B182" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B183" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B184" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B185" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B186" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B187" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B188" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B189" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B191" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B192" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B193" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B194" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B195" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B196" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B197" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B198" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B199" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B200" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B201" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B202" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B203" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B204" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B205" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B207" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B208" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B209" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B210" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B211" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B212" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B213" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B214" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B215" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B216" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B217" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B218" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B219" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B220" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B221" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B222" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B223" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B224" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B225" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B226" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B227" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B228" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B229" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B230" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B231" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B232" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B233" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B234" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B235" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B236" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B237" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B238" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B239" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B240" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B241" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B242" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B243" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B244" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B245" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B246" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B247" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B248" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B249" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B250" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B251" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B252" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B253" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B254" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B255" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B259" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B260" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B261" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B262" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B263" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B264" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B265" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B266" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B267" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B268" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B269" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B270" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B271" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B272" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B273" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6924364-E25B-D84A-9880-84BDE5B605E5}">
   <dimension ref="A1:A1351"/>
   <sheetViews>
-    <sheetView topLeftCell="A1320" workbookViewId="0">
+    <sheetView topLeftCell="A1081" workbookViewId="0">
       <selection activeCell="A1350" sqref="A1350"/>
     </sheetView>
   </sheetViews>
@@ -13177,7 +15198,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9587C8-47F8-DF4F-A2F7-9D513599593D}">
   <dimension ref="A1:XFD79"/>
   <sheetViews>
@@ -63899,11 +65920,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A20F795-77A5-4A44-92F8-E016F71D03E6}">
   <dimension ref="A1:D218"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A185" workbookViewId="0">
       <selection activeCell="A195" sqref="A195:D218"/>
     </sheetView>
   </sheetViews>
@@ -66960,7 +68981,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF83D1F-9B36-814C-9FE6-BF67F50CA967}">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -67193,11 +69214,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F35220-38B4-714C-B3D5-8B5620C32EFE}">
   <dimension ref="A1:A599"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A578" workbookViewId="0">
       <selection activeCell="A577" sqref="A2:A577"/>
     </sheetView>
   </sheetViews>
@@ -70201,403 +72222,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A4D7DA-64C3-AC4B-A052-D4C8DF73E21C}">
-  <dimension ref="A2:B49"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>348</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>